--- a/AmelData/data.xlsx
+++ b/AmelData/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amel Boucetta Gacem\eclipse-workspace\Selenium-Midterm-Final-2023\AmelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED96B262-8004-48EA-9E85-688BD6AC906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F066E6-4CCD-4E7B-8724-3B070C63E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618D3C7E-3FA6-476B-A897-7EFE553E044D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>useraname</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>LastName</t>
-  </si>
-  <si>
-    <t>Credentials</t>
   </si>
 </sst>
 </file>
@@ -495,11 +492,14 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/AmelData/data.xlsx
+++ b/AmelData/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amel Boucetta Gacem\eclipse-workspace\Selenium-Midterm-Final-2023\AmelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F066E6-4CCD-4E7B-8724-3B070C63E5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73B6F2-9D05-47C3-884F-72BD52833068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{618D3C7E-3FA6-476B-A897-7EFE553E044D}"/>
+    <workbookView xWindow="13500" yWindow="4095" windowWidth="13680" windowHeight="11385" xr2:uid="{618D3C7E-3FA6-476B-A897-7EFE553E044D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
-  <si>
-    <t>useraname</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t>password</t>
   </si>
@@ -83,6 +80,12 @@
   </si>
   <si>
     <t>LastName</t>
+  </si>
+  <si>
+    <t>credentials</t>
+  </si>
+  <si>
+    <t>username</t>
   </si>
 </sst>
 </file>
@@ -489,7 +492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EEC724A-5BB0-4FB4-A879-13AE6021336D}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -499,73 +504,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,18 +601,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
